--- a/data/trans_dic/P43-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P43-Habitat-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3240748992229219</v>
+        <v>0.3209686089956498</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4357912799228885</v>
+        <v>0.4387529360302877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.459520916413855</v>
+        <v>0.4608998969503678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4857085241796293</v>
+        <v>0.4861494081831306</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3920005453730169</v>
+        <v>0.3941686106318262</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5106180784925377</v>
+        <v>0.5175582035218198</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5373668884136359</v>
+        <v>0.5374034466638919</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5579441895854942</v>
+        <v>0.5595739987861963</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.5255424656843117</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4895004081376771</v>
+        <v>0.489500408137677</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3242236234536256</v>
+        <v>0.3241490620641158</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4176896603226322</v>
+        <v>0.4198105116933465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4952958240919938</v>
+        <v>0.493614273790684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4605824900042174</v>
+        <v>0.4584147356082526</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3854043882203937</v>
+        <v>0.3891776817201009</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4850518999275402</v>
+        <v>0.4847388374211584</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5585804809382716</v>
+        <v>0.5604180091143341</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.520477086392155</v>
+        <v>0.5216986256605386</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.4376199310214083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5209776369444036</v>
+        <v>0.5209776369444037</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3499297307113363</v>
+        <v>0.3529925529897809</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4449705805981676</v>
+        <v>0.4427845616562961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3974606965850155</v>
+        <v>0.4019222541379584</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4828311604474003</v>
+        <v>0.4793071989380642</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4261694062433384</v>
+        <v>0.4245079501410131</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5183282162021456</v>
+        <v>0.5156873915204853</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4722928279350317</v>
+        <v>0.47744648671528</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.560573345344064</v>
+        <v>0.5562763894187425</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.5190742261318018</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.55693729235905</v>
+        <v>0.5569372923590501</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3826159041643901</v>
+        <v>0.3806538632238226</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4515459786942804</v>
+        <v>0.4521906098830298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.486752870577932</v>
+        <v>0.4884059589467128</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5259934092052347</v>
+        <v>0.5254480223936594</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4437758370376926</v>
+        <v>0.4431356879857746</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.515829663243073</v>
+        <v>0.5156345189305032</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5520623233503481</v>
+        <v>0.5532373458904079</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5884906061756603</v>
+        <v>0.5854524202460561</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3622715886032239</v>
+        <v>0.3603562959309313</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4537584439578993</v>
+        <v>0.454294398288339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4810924288000681</v>
+        <v>0.4822212055378957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5065125460456329</v>
+        <v>0.507123797453027</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3974197375280143</v>
+        <v>0.3941554257213243</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4884791313500955</v>
+        <v>0.4893877316869233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5168945766816806</v>
+        <v>0.5162482111536849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5404197333075912</v>
+        <v>0.5399890264721099</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>221430</v>
+        <v>219308</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>302041</v>
+        <v>304094</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>307111</v>
+        <v>308032</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>268577</v>
+        <v>268821</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>267841</v>
+        <v>269323</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>353903</v>
+        <v>358713</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>359137</v>
+        <v>359162</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>308520</v>
+        <v>309421</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>312944</v>
+        <v>312872</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>428089</v>
+        <v>430263</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>512269</v>
+        <v>510530</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>377534</v>
+        <v>375757</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>371996</v>
+        <v>375638</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>497128</v>
+        <v>496807</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>577722</v>
+        <v>579623</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>426629</v>
+        <v>427630</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>237397</v>
+        <v>239474</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>344362</v>
+        <v>342670</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>310698</v>
+        <v>314186</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>275791</v>
+        <v>273778</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>289118</v>
+        <v>287991</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>401133</v>
+        <v>399089</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>369195</v>
+        <v>373224</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>320197</v>
+        <v>317743</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>395091</v>
+        <v>393065</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>471719</v>
+        <v>472393</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>503977</v>
+        <v>505688</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>451851</v>
+        <v>451383</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>458245</v>
+        <v>457584</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>538875</v>
+        <v>538671</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>571597</v>
+        <v>572814</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>505539</v>
+        <v>502929</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1217049</v>
+        <v>1210615</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1604743</v>
+        <v>1606638</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1693296</v>
+        <v>1697269</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1419697</v>
+        <v>1421410</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1335129</v>
+        <v>1324163</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1727535</v>
+        <v>1730748</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1819309</v>
+        <v>1817034</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1514735</v>
+        <v>1513528</v>
       </c>
     </row>
     <row r="24">
